--- a/trunk/Measurement Analysis/K15T2-Team22-Team Assignment7/Team 7.xlsx
+++ b/trunk/Measurement Analysis/K15T2-Team22-Team Assignment7/Team 7.xlsx
@@ -7,91 +7,25 @@
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Bảng tính tổng" sheetId="1" r:id="rId1"/>
-    <sheet name="Bảng tính lương" sheetId="2" r:id="rId2"/>
+    <sheet name="Total Cost" sheetId="1" r:id="rId1"/>
+    <sheet name="Salary Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
-  <si>
-    <t>Danh mục</t>
-  </si>
-  <si>
-    <t>Chi tiết</t>
-  </si>
-  <si>
-    <t>Tiền</t>
-  </si>
-  <si>
-    <t>Tiền phát triển</t>
-  </si>
-  <si>
-    <t>Tiền lương</t>
-  </si>
-  <si>
-    <t>Tiền Bonus (Benefit)</t>
-  </si>
-  <si>
-    <t>Trainning</t>
-  </si>
-  <si>
-    <t>Travel business (công tác phí)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Team building</t>
   </si>
   <si>
-    <t>Quản lý rủi ro</t>
-  </si>
-  <si>
-    <t>Quản lý thay đổi</t>
-  </si>
-  <si>
     <t>Equipment (Hardware &amp; Software)</t>
   </si>
   <si>
-    <t>Tiền ngoài ý muốn</t>
-  </si>
-  <si>
-    <t>Tiền cơ sở vật chất</t>
-  </si>
-  <si>
-    <t>Năm 1</t>
-  </si>
-  <si>
-    <t>Bảo trì</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Team maintain</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>5 cty * 1 tháng * 3 người * 50</t>
-  </si>
-  <si>
-    <t>Năm 2 + 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiền phát triển </t>
-  </si>
-  <si>
-    <t>Tiền dự phòng</t>
-  </si>
-  <si>
-    <t>Năm 4</t>
-  </si>
-  <si>
-    <t>Năm</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
@@ -128,9 +62,6 @@
     <t>Work Hour</t>
   </si>
   <si>
-    <t>Bảng tính lương nhân viên</t>
-  </si>
-  <si>
     <t>Designer</t>
   </si>
   <si>
@@ -162,6 +93,69 @@
   </si>
   <si>
     <t>Year 4</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Team Maintenance</t>
+  </si>
+  <si>
+    <t>Developing expense</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonus </t>
+  </si>
+  <si>
+    <t>Trainning team</t>
+  </si>
+  <si>
+    <t>Travel business</t>
+  </si>
+  <si>
+    <t>Change management expense</t>
+  </si>
+  <si>
+    <t>Risk management expense</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>1st year</t>
+  </si>
+  <si>
+    <t>2nd and 3rd year</t>
+  </si>
+  <si>
+    <t>4th year</t>
+  </si>
+  <si>
+    <t>Facility expense</t>
+  </si>
+  <si>
+    <t>Contingency expense</t>
+  </si>
+  <si>
+    <t>Cost ($)</t>
+  </si>
+  <si>
+    <t>5 company * 1 month * 3 members * 50</t>
+  </si>
+  <si>
+    <t>Salary Table</t>
+  </si>
+  <si>
+    <t>Training customer</t>
   </si>
 </sst>
 </file>
@@ -437,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,6 +454,130 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,142 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,314 +921,314 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="66" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="66" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="66"/>
-    <col min="6" max="16384" width="9.140625" style="40"/>
+    <col min="1" max="1" width="12.140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="29"/>
+    <col min="6" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="29">
+      <c r="A2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="14">
         <v>284570</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="45">
         <f>SUM(D2:D11)</f>
         <v>536570</v>
       </c>
     </row>
     <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="A3" s="37"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="14">
         <v>2000</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="29">
+      <c r="A4" s="37"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="14">
         <v>10000</v>
       </c>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="29">
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="14">
         <v>5000</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="29">
+      <c r="A6" s="37"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
         <v>5000</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29">
+      <c r="A7" s="37"/>
+      <c r="B7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14">
         <v>60000</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29">
+      <c r="A8" s="37"/>
+      <c r="B8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14">
         <v>60000</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29">
+      <c r="A9" s="37"/>
+      <c r="B9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14">
         <v>20000</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29">
+      <c r="A10" s="37"/>
+      <c r="B10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="46"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17">
         <v>70000</v>
       </c>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38">
-        <v>20000</v>
-      </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="29">
+      <c r="A13" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="14">
         <v>54000</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="30">
         <f>SUM(D13:D14)</f>
         <v>121500</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="47">
+    <row r="14" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="21">
         <v>67500</v>
       </c>
-      <c r="E14" s="48"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23">
         <v>27000</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="30">
         <f>SUM(D16:D25)</f>
         <v>269170</v>
       </c>
     </row>
     <row r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="29">
+      <c r="A17" s="43"/>
+      <c r="B17" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14">
         <v>98670</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="47">
+      <c r="A18" s="43"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="21">
         <v>500</v>
       </c>
-      <c r="E18" s="55"/>
-    </row>
-    <row r="19" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="29">
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="14">
         <v>1000</v>
       </c>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="47">
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="21">
         <v>2000</v>
       </c>
-      <c r="E20" s="55"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46">
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20">
         <v>20000</v>
       </c>
-      <c r="E21" s="55"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61">
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25">
         <v>20000</v>
       </c>
-      <c r="E22" s="55"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63">
+      <c r="A23" s="43"/>
+      <c r="B23" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27">
         <v>20000</v>
       </c>
-      <c r="E23" s="55"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="29">
+      <c r="A24" s="43"/>
+      <c r="B24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="21">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21">
         <v>60000</v>
       </c>
-      <c r="E24" s="55"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="64"/>
-      <c r="B25" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47">
-        <v>20000</v>
-      </c>
-      <c r="E25" s="48"/>
+      <c r="E25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1270,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,44 +1268,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>31</v>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>47</v>
+      <c r="A5" s="61" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -1347,9 +1329,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
@@ -1373,9 +1355,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
@@ -1399,9 +1381,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -1425,9 +1407,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -1451,9 +1433,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -1477,9 +1459,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
@@ -1503,9 +1485,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -1529,9 +1511,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
@@ -1555,9 +1537,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4">
         <v>6</v>
@@ -1581,9 +1563,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
@@ -1607,9 +1589,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
@@ -1633,9 +1615,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -1659,13 +1641,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
+      <c r="A18" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="2">
         <f>SUM(F5:F17)</f>
         <v>284570</v>
@@ -1674,21 +1656,21 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>48</v>
+      <c r="A20" s="51" t="s">
+        <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -1711,9 +1693,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -1736,9 +1718,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -1761,9 +1743,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1786,9 +1768,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1811,9 +1793,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
@@ -1836,9 +1818,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
@@ -1861,9 +1843,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -1886,9 +1868,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -1911,13 +1893,13 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
+      <c r="A29" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="2">
         <f>SUM(F20:F28)</f>
         <v>98670</v>

--- a/trunk/Measurement Analysis/K15T2-Team22-Team Assignment7/Team 7.xlsx
+++ b/trunk/Measurement Analysis/K15T2-Team22-Team Assignment7/Team 7.xlsx
@@ -149,13 +149,13 @@
     <t>Cost ($)</t>
   </si>
   <si>
-    <t>5 company * 1 month * 3 members * 50</t>
-  </si>
-  <si>
     <t>Salary Table</t>
   </si>
   <si>
     <t>Training customer</t>
+  </si>
+  <si>
+    <t>5 company * 1 month * 3 members * 50$</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1096,10 +1096,10 @@
     <row r="14" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="21">
         <v>67500</v>
@@ -1252,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1269,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C1" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>

--- a/trunk/Measurement Analysis/K15T2-Team22-Team Assignment7/Team 7.xlsx
+++ b/trunk/Measurement Analysis/K15T2-Team22-Team Assignment7/Team 7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Total Cost" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>Team building</t>
   </si>
@@ -155,14 +155,38 @@
     <t>Training customer</t>
   </si>
   <si>
-    <t>5 company * 1 month * 3 members * 50$</t>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Mantaining Member 1</t>
+  </si>
+  <si>
+    <t>Mantaining Member 2</t>
+  </si>
+  <si>
+    <t>Mantaining Member 3</t>
+  </si>
+  <si>
+    <t>Training Member 1</t>
+  </si>
+  <si>
+    <t>Training Member 2</t>
+  </si>
+  <si>
+    <t>Training Member 3</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>Team Training</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,17 +216,58 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -214,19 +279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,8 +303,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -428,35 +491,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,29 +511,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,16 +542,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,107 +560,132 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -920,315 +987,315 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="29"/>
-    <col min="6" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="12.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="21"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="6">
         <v>284570</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="37">
         <f>SUM(D2:D11)</f>
         <v>536570</v>
       </c>
     </row>
     <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="6">
         <v>2000</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="6">
         <v>10000</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="6">
         <v>5000</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="6">
         <v>5000</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6">
         <v>60000</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6">
         <v>60000</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6">
         <v>20000</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6">
         <v>20000</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9">
         <v>70000</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="6">
         <v>54000</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="22">
         <f>SUM(D13:D14)</f>
         <v>121500</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="21">
+      <c r="C14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="13">
         <v>67500</v>
       </c>
-      <c r="E14" s="32"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15">
         <v>27000</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="22">
         <f>SUM(D16:D25)</f>
         <v>269170</v>
       </c>
     </row>
     <row r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="6">
         <v>98670</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="13">
         <v>500</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="6">
         <v>1000</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="13">
         <v>2000</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12">
         <v>20000</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25">
+      <c r="C22" s="16"/>
+      <c r="D22" s="17">
         <v>20000</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27">
+      <c r="C23" s="18"/>
+      <c r="D23" s="19">
         <v>20000</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="21">
+      <c r="C24" s="7"/>
+      <c r="D24" s="13">
         <v>20000</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21">
+      <c r="C25" s="12"/>
+      <c r="D25" s="13">
         <v>60000</v>
       </c>
-      <c r="E25" s="32"/>
+      <c r="E25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1250,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,654 +1334,990 @@
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C1" s="50" t="s">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="47"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="60" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="44">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="44">
         <v>100</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="44">
         <f t="shared" ref="E5:E17" si="0">(H5-G5+1)*22*C5</f>
         <v>396</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="44">
         <f t="shared" ref="F5:F17" si="1">D5*E5</f>
         <v>39600</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="44">
         <v>4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="44">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="44">
         <v>4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="44">
         <v>60</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="44">
         <f t="shared" si="0"/>
         <v>528</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="44">
         <f t="shared" si="1"/>
         <v>31680</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="44">
         <v>6</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="44">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="44">
         <v>4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="44">
         <v>60</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="44">
         <f t="shared" si="0"/>
         <v>528</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="44">
         <f t="shared" si="1"/>
         <v>31680</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="44">
         <v>6</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="44">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="44">
         <v>4</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="44">
         <v>60</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="44">
         <f t="shared" si="0"/>
         <v>528</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="44">
         <f t="shared" si="1"/>
         <v>31680</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="44">
         <v>6</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="44">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="44">
         <v>4</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="44">
         <v>60</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="44">
         <f t="shared" si="0"/>
         <v>528</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="44">
         <f t="shared" si="1"/>
         <v>31680</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="44">
         <v>6</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="44">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="44">
         <v>3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="44">
         <v>150</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="44">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="44">
         <f t="shared" si="1"/>
         <v>19800</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="44">
         <v>2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="44">
         <v>2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="44">
         <v>75</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="44">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="44">
         <f t="shared" si="1"/>
         <v>6600</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="44">
         <v>5</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="44">
         <v>2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="44">
         <v>75</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="44">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="44">
         <f t="shared" si="1"/>
         <v>6600</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="44">
         <v>5</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="44">
         <v>6</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="44">
         <v>75</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="44">
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="44">
         <f t="shared" si="1"/>
         <v>19800</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="44">
         <v>4</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="44">
         <v>6</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="44">
         <v>75</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="44">
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="44">
         <f t="shared" si="1"/>
         <v>19800</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="44">
         <v>4</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="44">
         <v>3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="44">
         <v>75</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="44">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="44">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="44">
         <v>11</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="44">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="44">
         <v>3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="44">
         <v>75</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="44">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="44">
         <f t="shared" si="1"/>
         <v>4950</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="44">
         <v>12</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="44">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="44">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="44">
         <v>100</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="44">
         <f t="shared" si="0"/>
         <v>308</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="44">
         <f t="shared" si="1"/>
         <v>30800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="44">
         <v>4</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="44">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="2">
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="54">
         <f>SUM(F5:F17)</f>
         <v>284570</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
+      <c r="A19" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="49">
+        <v>3</v>
+      </c>
+      <c r="D19" s="49">
+        <v>50</v>
+      </c>
+      <c r="E19" s="49">
+        <v>180</v>
+      </c>
+      <c r="F19" s="50">
+        <v>27000</v>
+      </c>
+      <c r="G19" s="50">
+        <v>1</v>
+      </c>
+      <c r="H19" s="50">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="49">
+        <v>3</v>
+      </c>
+      <c r="D20" s="49">
+        <v>50</v>
+      </c>
+      <c r="E20" s="49">
+        <v>180</v>
+      </c>
+      <c r="F20" s="50">
+        <v>27000</v>
+      </c>
+      <c r="G20" s="50">
+        <v>1</v>
+      </c>
+      <c r="H20" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="49">
+        <v>3</v>
+      </c>
+      <c r="D21" s="49">
+        <v>50</v>
+      </c>
+      <c r="E21" s="49">
+        <v>180</v>
+      </c>
+      <c r="F21" s="50">
+        <v>27000</v>
+      </c>
+      <c r="G21" s="50">
+        <v>1</v>
+      </c>
+      <c r="H21" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="49">
+        <v>3</v>
+      </c>
+      <c r="D22" s="49">
+        <v>50</v>
+      </c>
+      <c r="E22" s="49">
+        <v>450</v>
+      </c>
+      <c r="F22" s="50">
+        <v>22500</v>
+      </c>
+      <c r="G22" s="50">
+        <v>1</v>
+      </c>
+      <c r="H22" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="49">
+        <v>3</v>
+      </c>
+      <c r="D23" s="49">
+        <v>50</v>
+      </c>
+      <c r="E23" s="49">
+        <v>450</v>
+      </c>
+      <c r="F23" s="50">
+        <v>22500</v>
+      </c>
+      <c r="G23" s="50">
+        <v>1</v>
+      </c>
+      <c r="H23" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="49">
+        <v>3</v>
+      </c>
+      <c r="D24" s="49">
+        <v>50</v>
+      </c>
+      <c r="E24" s="49">
+        <v>450</v>
+      </c>
+      <c r="F24" s="50">
+        <v>22500</v>
+      </c>
+      <c r="G24" s="50">
+        <v>1</v>
+      </c>
+      <c r="H24" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="54">
+        <v>60750</v>
+      </c>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="49">
+        <v>3</v>
+      </c>
+      <c r="D26" s="49">
+        <v>50</v>
+      </c>
+      <c r="E26" s="49">
+        <v>180</v>
+      </c>
+      <c r="F26" s="50">
+        <v>27000</v>
+      </c>
+      <c r="G26" s="50">
+        <v>1</v>
+      </c>
+      <c r="H26" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="49">
+        <v>3</v>
+      </c>
+      <c r="D27" s="49">
+        <v>50</v>
+      </c>
+      <c r="E27" s="49">
+        <v>180</v>
+      </c>
+      <c r="F27" s="50">
+        <v>27000</v>
+      </c>
+      <c r="G27" s="50">
+        <v>1</v>
+      </c>
+      <c r="H27" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="49">
+        <v>3</v>
+      </c>
+      <c r="D28" s="49">
+        <v>50</v>
+      </c>
+      <c r="E28" s="49">
+        <v>180</v>
+      </c>
+      <c r="F28" s="50">
+        <v>27000</v>
+      </c>
+      <c r="G28" s="50">
+        <v>1</v>
+      </c>
+      <c r="H28" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="49">
+        <v>3</v>
+      </c>
+      <c r="D29" s="49">
+        <v>50</v>
+      </c>
+      <c r="E29" s="49">
+        <v>450</v>
+      </c>
+      <c r="F29" s="50">
+        <v>22500</v>
+      </c>
+      <c r="G29" s="50">
+        <v>1</v>
+      </c>
+      <c r="H29" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="49">
+        <v>3</v>
+      </c>
+      <c r="D30" s="49">
+        <v>50</v>
+      </c>
+      <c r="E30" s="49">
+        <v>450</v>
+      </c>
+      <c r="F30" s="50">
+        <v>22500</v>
+      </c>
+      <c r="G30" s="50">
+        <v>1</v>
+      </c>
+      <c r="H30" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="49">
+        <v>3</v>
+      </c>
+      <c r="D31" s="49">
+        <v>50</v>
+      </c>
+      <c r="E31" s="49">
+        <v>450</v>
+      </c>
+      <c r="F31" s="50">
+        <v>22500</v>
+      </c>
+      <c r="G31" s="50">
+        <v>1</v>
+      </c>
+      <c r="H31" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="54">
+        <v>60750</v>
+      </c>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B33" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C33" s="52">
         <v>2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D33" s="52">
         <v>100</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E33" s="52">
         <v>132</v>
       </c>
-      <c r="F20" s="1">
-        <f>D20*E20</f>
+      <c r="F33" s="52">
+        <f>D33*E33</f>
         <v>13200</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G33" s="52">
         <v>4</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H33" s="52">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="5" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C34" s="52">
         <v>4</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D34" s="52">
         <v>60</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E34" s="52">
         <v>352</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" ref="F21:F28" si="2">D21*E21</f>
+      <c r="F34" s="52">
+        <f t="shared" ref="F34:F41" si="2">D34*E34</f>
         <v>21120</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G34" s="52">
         <v>5</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H34" s="52">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="5" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
+      <c r="B35" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C35" s="52">
         <v>4</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D35" s="52">
         <v>75</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E35" s="52">
         <v>352</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F35" s="52">
         <f t="shared" si="2"/>
         <v>26400</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G35" s="52">
         <v>5</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H35" s="52">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="5" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C36" s="52">
         <v>2</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D36" s="52">
         <v>75</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E36" s="52">
         <v>44</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F36" s="52">
         <f t="shared" si="2"/>
         <v>3300</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G36" s="52">
         <v>4</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H36" s="52">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="5" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
+      <c r="B37" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C37" s="52">
         <v>2</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D37" s="52">
         <v>75</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E37" s="52">
         <v>44</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F37" s="52">
         <f t="shared" si="2"/>
         <v>3300</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G37" s="52">
         <v>4</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H37" s="52">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="5" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
+      <c r="B38" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C38" s="52">
         <v>6</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D38" s="52">
         <v>75</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E38" s="52">
         <v>66</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F38" s="52">
         <f t="shared" si="2"/>
         <v>4950</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G38" s="52">
         <v>4</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H38" s="52">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="5" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C39" s="52">
         <v>3</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D39" s="52">
         <v>75</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E39" s="52">
         <v>132</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F39" s="52">
         <f t="shared" si="2"/>
         <v>9900</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G39" s="52">
         <v>9</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H39" s="52">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="5" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
+      <c r="B40" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C40" s="52">
         <v>3</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D40" s="52">
         <v>75</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E40" s="52">
         <v>132</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F40" s="52">
         <f t="shared" si="2"/>
         <v>9900</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G40" s="52">
         <v>9</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H40" s="52">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="5" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="B41" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C41" s="52">
         <v>3</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D41" s="52">
         <v>100</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E41" s="52">
         <v>66</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F41" s="52">
         <f t="shared" si="2"/>
         <v>6600</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G41" s="52">
         <v>4</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H41" s="52">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="2">
-        <f>SUM(F20:F28)</f>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="54">
+        <f>SUM(F33:F41)</f>
         <v>98670</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A33:A41"/>
     <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A42:E42"/>
     <mergeCell ref="A5:A17"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
